--- a/PS-VRP/Dati_input/Results Intermedi.xlsx
+++ b/PS-VRP/Dati_input/Results Intermedi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wikipedis\Documents\GitHub\progettoIS\PS-VRP\Dati_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24BB7AC5-6AE9-4E89-9E19-F4A1716121E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646D1F3F-CA94-41B9-84BD-55F4A27F5AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -532,7 +532,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -551,6 +551,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -564,7 +576,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -591,6 +603,33 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -927,11 +966,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.28515625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="36" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -1234,100 +1276,100 @@
       <c r="A4" s="9">
         <v>243335</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="10">
         <v>45502</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="10">
         <v>45506</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="9">
         <v>0</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="9">
         <v>33004</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="9">
         <v>3746</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="9">
         <v>410</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="9">
         <v>1230</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="O4" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="P4" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="Q4" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="R4" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="S4" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="T4" s="4" t="s">
+      <c r="T4" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="U4" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="V4" s="4" t="s">
+      <c r="V4" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="W4" s="4" t="s">
+      <c r="W4" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="X4" s="4" t="s">
+      <c r="X4" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="Y4" s="4" t="s">
+      <c r="Y4" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="Z4" s="4" t="s">
+      <c r="Z4" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="AA4" s="4" t="s">
+      <c r="AA4" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="AB4" s="4" t="s">
+      <c r="AB4" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="AC4" s="4" t="s">
+      <c r="AC4" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="AD4" s="4" t="s">
+      <c r="AD4" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="AE4" s="4" t="s">
+      <c r="AE4" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="AF4" s="2">
+      <c r="AF4" s="9">
         <v>0</v>
       </c>
-      <c r="AG4" s="2">
+      <c r="AG4" s="9">
         <v>105</v>
       </c>
     </row>
@@ -1532,100 +1574,101 @@
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="A7" s="13">
         <v>245623</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="14">
         <v>45756</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="14">
         <v>45682</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="13">
         <v>1</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="13">
         <v>26419</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="13">
         <v>1536</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="H7" s="16"/>
+      <c r="I7" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="13">
         <v>840</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="13">
         <v>840</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="L7" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="M7" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="N7" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="O7" s="4" t="s">
+      <c r="O7" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="P7" s="4" t="s">
+      <c r="P7" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="Q7" s="4" t="s">
+      <c r="Q7" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="R7" s="4" t="s">
+      <c r="R7" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="S7" s="4" t="s">
+      <c r="S7" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="T7" s="4" t="s">
+      <c r="T7" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="U7" s="4" t="s">
+      <c r="U7" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="V7" s="4" t="s">
+      <c r="V7" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="W7" s="4" t="s">
+      <c r="W7" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="X7" s="4" t="s">
+      <c r="X7" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="Y7" s="4" t="s">
+      <c r="Y7" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="Z7" s="4" t="s">
+      <c r="Z7" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="AA7" s="4" t="s">
+      <c r="AA7" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="AB7" s="4" t="s">
+      <c r="AB7" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="AC7" s="4" t="s">
+      <c r="AC7" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="AD7" s="4" t="s">
+      <c r="AD7" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AE7" s="4" t="s">
+      <c r="AE7" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="AF7" s="2">
+      <c r="AF7" s="13">
         <v>0</v>
       </c>
-      <c r="AG7" s="2">
+      <c r="AG7" s="13">
         <v>43</v>
       </c>
     </row>
@@ -1633,192 +1676,195 @@
       <c r="A8" s="9">
         <v>250780</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="10">
         <v>45756</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="10">
         <v>45782</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="9">
         <v>7</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="9">
         <v>26132</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="9">
         <v>1500</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="9">
         <v>88</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="9">
         <v>792</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="L8" s="12"/>
+      <c r="M8" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="N8" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="O8" s="4" t="s">
+      <c r="O8" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="P8" s="4" t="s">
+      <c r="P8" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="Q8" s="4" t="s">
+      <c r="Q8" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="R8" s="4" t="s">
+      <c r="R8" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="S8" s="4" t="s">
+      <c r="S8" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="T8" s="4" t="s">
+      <c r="T8" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="U8" s="4" t="s">
+      <c r="U8" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="V8" s="4" t="s">
+      <c r="V8" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="W8" s="4" t="s">
+      <c r="W8" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="X8" s="4" t="s">
+      <c r="X8" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="Y8" s="4" t="s">
+      <c r="Y8" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="Z8" s="4" t="s">
+      <c r="Z8" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="AA8" s="4" t="s">
+      <c r="AA8" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="AB8" s="4" t="s">
+      <c r="AB8" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="AC8" s="4" t="s">
+      <c r="AC8" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="AD8" s="4" t="s">
+      <c r="AD8" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="AE8" s="4" t="s">
+      <c r="AE8" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="AF8" s="2">
+      <c r="AF8" s="9">
         <v>0</v>
       </c>
-      <c r="AG8" s="2">
+      <c r="AG8" s="9">
         <v>324</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="A9" s="13">
         <v>245089</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="14">
         <v>45756</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="14">
         <v>46022</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="13">
         <v>0</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="13">
         <v>122665</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="13">
         <v>2679</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="H9" s="16"/>
+      <c r="I9" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="13">
         <v>395</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="13">
         <v>1185</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="L9" s="16"/>
+      <c r="M9" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="N9" s="4" t="s">
+      <c r="N9" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="O9" s="4" t="s">
+      <c r="O9" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="P9" s="4" t="s">
+      <c r="P9" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="Q9" s="4" t="s">
+      <c r="Q9" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="R9" s="4" t="s">
+      <c r="R9" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="S9" s="4" t="s">
+      <c r="S9" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="T9" s="4" t="s">
+      <c r="T9" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="U9" s="4" t="s">
+      <c r="U9" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="V9" s="4" t="s">
+      <c r="V9" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="W9" s="4" t="s">
+      <c r="W9" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="X9" s="4" t="s">
+      <c r="X9" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="Y9" s="4" t="s">
+      <c r="Y9" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="Z9" s="4" t="s">
+      <c r="Z9" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="AA9" s="4" t="s">
+      <c r="AA9" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="AB9" s="4" t="s">
+      <c r="AB9" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="AC9" s="4" t="s">
+      <c r="AC9" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="AD9" s="4" t="s">
+      <c r="AD9" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AE9" s="4" t="s">
+      <c r="AE9" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="AF9" s="2">
+      <c r="AF9" s="13">
         <v>1</v>
       </c>
-      <c r="AG9" s="2">
+      <c r="AG9" s="13">
         <v>138</v>
       </c>
     </row>
@@ -1925,100 +1971,100 @@
       <c r="A11" s="9">
         <v>251129</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="10">
         <v>45754</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="10">
         <v>45727</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="9">
         <v>3</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="9">
         <v>7193</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="9">
         <v>325</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="9">
         <v>170</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="9">
         <v>680</v>
       </c>
-      <c r="L11" s="4" t="s">
+      <c r="L11" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="M11" s="4" t="s">
+      <c r="M11" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="N11" s="4" t="s">
+      <c r="N11" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="O11" s="4" t="s">
+      <c r="O11" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="P11" s="4" t="s">
+      <c r="P11" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="Q11" s="4" t="s">
+      <c r="Q11" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="R11" s="4" t="s">
+      <c r="R11" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="S11" s="4" t="s">
+      <c r="S11" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="T11" s="4" t="s">
+      <c r="T11" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="U11" s="4" t="s">
+      <c r="U11" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="V11" s="4" t="s">
+      <c r="V11" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="W11" s="4" t="s">
+      <c r="W11" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="X11" s="4" t="s">
+      <c r="X11" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="Y11" s="4" t="s">
+      <c r="Y11" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="Z11" s="4" t="s">
+      <c r="Z11" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="AA11" s="4" t="s">
+      <c r="AA11" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="AB11" s="4" t="s">
+      <c r="AB11" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="AC11" s="4" t="s">
+      <c r="AC11" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="AD11" s="4" t="s">
+      <c r="AD11" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="AE11" s="4" t="s">
+      <c r="AE11" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="AF11" s="2">
+      <c r="AF11" s="9">
         <v>0</v>
       </c>
-      <c r="AG11" s="2">
+      <c r="AG11" s="9">
         <v>44</v>
       </c>
     </row>
@@ -2223,495 +2269,499 @@
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="A14" s="9">
         <v>251094</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="10">
         <v>45749</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="10">
         <v>45761</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="9">
         <v>0</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="9">
         <v>13497</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="9">
         <v>1343</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="9">
         <v>410</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="9">
         <v>1230</v>
       </c>
-      <c r="L14" s="4" t="s">
+      <c r="L14" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="M14" s="4" t="s">
+      <c r="M14" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="N14" s="4" t="s">
+      <c r="N14" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="O14" s="4" t="s">
+      <c r="O14" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="P14" s="4" t="s">
+      <c r="P14" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="Q14" s="4" t="s">
+      <c r="Q14" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="R14" s="4" t="s">
+      <c r="R14" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="S14" s="4" t="s">
+      <c r="S14" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="T14" s="4" t="s">
+      <c r="T14" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="U14" s="4" t="s">
+      <c r="U14" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="V14" s="4" t="s">
+      <c r="V14" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="W14" s="4" t="s">
+      <c r="W14" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="X14" s="4" t="s">
+      <c r="X14" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="Y14" s="4" t="s">
+      <c r="Y14" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="Z14" s="4" t="s">
+      <c r="Z14" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="AA14" s="4" t="s">
+      <c r="AA14" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="AB14" s="4" t="s">
+      <c r="AB14" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="AC14" s="4" t="s">
+      <c r="AC14" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="AD14" s="4" t="s">
+      <c r="AD14" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="AE14" s="4" t="s">
+      <c r="AE14" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="AF14" s="2">
+      <c r="AF14" s="9">
         <v>1</v>
       </c>
-      <c r="AG14" s="2">
+      <c r="AG14" s="9">
         <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="A15" s="13">
         <v>250497</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="14">
         <v>45749</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="14">
         <v>45757</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="13">
         <v>6</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="13">
         <v>18990</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="13">
         <v>886</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="H15" s="16"/>
+      <c r="I15" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="13">
         <v>275</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15" s="13">
         <v>825</v>
       </c>
-      <c r="L15" s="4" t="s">
+      <c r="L15" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="M15" s="4" t="s">
+      <c r="M15" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="N15" s="4" t="s">
+      <c r="N15" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="O15" s="4" t="s">
+      <c r="O15" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="P15" s="4" t="s">
+      <c r="P15" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="Q15" s="4" t="s">
+      <c r="Q15" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="R15" s="4" t="s">
+      <c r="R15" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="S15" s="4" t="s">
+      <c r="S15" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="T15" s="4" t="s">
+      <c r="T15" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="U15" s="4" t="s">
+      <c r="U15" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="V15" s="4" t="s">
+      <c r="V15" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="W15" s="4" t="s">
+      <c r="W15" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="X15" s="4" t="s">
+      <c r="X15" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="Y15" s="4" t="s">
+      <c r="Y15" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="Z15" s="4" t="s">
+      <c r="Z15" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="AA15" s="4" t="s">
+      <c r="AA15" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="AB15" s="4" t="s">
+      <c r="AB15" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="AC15" s="4" t="s">
+      <c r="AC15" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="AD15" s="4" t="s">
+      <c r="AD15" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AE15" s="4" t="s">
+      <c r="AE15" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="AF15" s="2">
+      <c r="AF15" s="13">
         <v>1</v>
       </c>
-      <c r="AG15" s="2">
+      <c r="AG15" s="13">
         <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="A16" s="13">
         <v>251150</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="14">
         <v>45756</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="14">
         <v>45765</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="13">
         <v>0</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="13">
         <v>45400</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="13">
         <v>1500</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="H16" s="16"/>
+      <c r="I16" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="13">
         <v>55</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16" s="13">
         <v>550</v>
       </c>
-      <c r="M16" s="4" t="s">
+      <c r="L16" s="16"/>
+      <c r="M16" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="N16" s="4" t="s">
+      <c r="N16" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="O16" s="4" t="s">
+      <c r="O16" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="P16" s="4" t="s">
+      <c r="P16" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="Q16" s="4" t="s">
+      <c r="Q16" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="R16" s="4" t="s">
+      <c r="R16" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="S16" s="4" t="s">
+      <c r="S16" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="T16" s="4" t="s">
+      <c r="T16" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="U16" s="4" t="s">
+      <c r="U16" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="V16" s="4" t="s">
+      <c r="V16" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="W16" s="4" t="s">
+      <c r="W16" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="X16" s="4" t="s">
+      <c r="X16" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="Y16" s="4" t="s">
+      <c r="Y16" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="Z16" s="4" t="s">
+      <c r="Z16" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="AA16" s="4" t="s">
+      <c r="AA16" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="AB16" s="4" t="s">
+      <c r="AB16" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="AC16" s="4" t="s">
+      <c r="AC16" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="AD16" s="4" t="s">
+      <c r="AD16" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AE16" s="4" t="s">
+      <c r="AE16" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="AF16" s="2">
+      <c r="AF16" s="13">
         <v>0</v>
       </c>
+      <c r="AG16" s="16"/>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+      <c r="A17" s="9">
         <v>251100</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="10">
         <v>45756</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="10">
         <v>45762</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="9">
         <v>6</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="9">
         <v>4661</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="9">
         <v>170</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H17" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="I17" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="9">
         <v>185</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K17" s="9">
         <v>555</v>
       </c>
-      <c r="L17" s="4" t="s">
+      <c r="L17" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="M17" s="4" t="s">
+      <c r="M17" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="N17" s="4" t="s">
+      <c r="N17" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="O17" s="4" t="s">
+      <c r="O17" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="P17" s="4" t="s">
+      <c r="P17" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="Q17" s="4" t="s">
+      <c r="Q17" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="R17" s="4" t="s">
+      <c r="R17" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="S17" s="4" t="s">
+      <c r="S17" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="T17" s="4" t="s">
+      <c r="T17" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="U17" s="4" t="s">
+      <c r="U17" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="V17" s="4" t="s">
+      <c r="V17" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="W17" s="4" t="s">
+      <c r="W17" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="X17" s="4" t="s">
+      <c r="X17" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="Y17" s="4" t="s">
+      <c r="Y17" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="Z17" s="4" t="s">
+      <c r="Z17" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="AA17" s="4" t="s">
+      <c r="AA17" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="AB17" s="4" t="s">
+      <c r="AB17" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="AC17" s="4" t="s">
+      <c r="AC17" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="AD17" s="4" t="s">
+      <c r="AD17" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="AE17" s="4" t="s">
+      <c r="AE17" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="AF17" s="2">
+      <c r="AF17" s="9">
         <v>0</v>
       </c>
-      <c r="AG17" s="2">
+      <c r="AG17" s="9">
         <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="A18" s="9">
         <v>251327</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="10">
         <v>45755</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="10">
         <v>45765</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="9">
         <v>0</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="9">
         <v>16744</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="9">
         <v>720</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="I18" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="9">
         <v>280</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K18" s="9">
         <v>840</v>
       </c>
-      <c r="L18" s="4" t="s">
+      <c r="L18" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="M18" s="4" t="s">
+      <c r="M18" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="N18" s="4" t="s">
+      <c r="N18" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="O18" s="4" t="s">
+      <c r="O18" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="P18" s="4" t="s">
+      <c r="P18" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="Q18" s="4" t="s">
+      <c r="Q18" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="R18" s="4" t="s">
+      <c r="R18" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="S18" s="4" t="s">
+      <c r="S18" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="T18" s="4" t="s">
+      <c r="T18" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="U18" s="4" t="s">
+      <c r="U18" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="V18" s="4" t="s">
+      <c r="V18" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="W18" s="4" t="s">
+      <c r="W18" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="X18" s="4" t="s">
+      <c r="X18" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="Y18" s="4" t="s">
+      <c r="Y18" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="Z18" s="4" t="s">
+      <c r="Z18" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="AA18" s="4" t="s">
+      <c r="AA18" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="AB18" s="4" t="s">
+      <c r="AB18" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="AC18" s="4" t="s">
+      <c r="AC18" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="AD18" s="4" t="s">
+      <c r="AD18" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="AE18" s="4" t="s">
+      <c r="AE18" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="AF18" s="2">
+      <c r="AF18" s="9">
         <v>0</v>
       </c>
-      <c r="AG18" s="2">
+      <c r="AG18" s="9">
         <v>42</v>
       </c>
     </row>
@@ -2817,198 +2867,200 @@
       </c>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+      <c r="A20" s="13">
         <v>250966</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="14">
         <v>45756</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="14">
         <v>45750</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="13">
         <v>6</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="13">
         <v>8681</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="13">
         <v>500</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="H20" s="16"/>
+      <c r="I20" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J20" s="13">
         <v>355</v>
       </c>
-      <c r="K20" s="2">
+      <c r="K20" s="13">
         <v>710</v>
       </c>
-      <c r="L20" s="4" t="s">
+      <c r="L20" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="M20" s="4" t="s">
+      <c r="M20" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="N20" s="4" t="s">
+      <c r="N20" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="O20" s="4" t="s">
+      <c r="O20" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="P20" s="4" t="s">
+      <c r="P20" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="Q20" s="4" t="s">
+      <c r="Q20" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="R20" s="4" t="s">
+      <c r="R20" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="S20" s="4" t="s">
+      <c r="S20" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="T20" s="4" t="s">
+      <c r="T20" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="U20" s="4" t="s">
+      <c r="U20" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="V20" s="4" t="s">
+      <c r="V20" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="W20" s="4" t="s">
+      <c r="W20" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="X20" s="4" t="s">
+      <c r="X20" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="Y20" s="4" t="s">
+      <c r="Y20" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="Z20" s="4" t="s">
+      <c r="Z20" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="AA20" s="4" t="s">
+      <c r="AA20" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="AB20" s="4" t="s">
+      <c r="AB20" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="AC20" s="4" t="s">
+      <c r="AC20" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="AD20" s="4" t="s">
+      <c r="AD20" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AE20" s="4" t="s">
+      <c r="AE20" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="AF20" s="2">
+      <c r="AF20" s="13">
         <v>0</v>
       </c>
-      <c r="AG20" s="2">
+      <c r="AG20" s="13">
         <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+      <c r="A21" s="13">
         <v>250307</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="14">
         <v>45755</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="14">
         <v>45747</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="13">
         <v>6</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="13">
         <v>9359</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="13">
         <v>511</v>
       </c>
-      <c r="I21" s="4" t="s">
+      <c r="H21" s="16"/>
+      <c r="I21" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J21" s="13">
         <v>680</v>
       </c>
-      <c r="K21" s="2">
+      <c r="K21" s="13">
         <v>680</v>
       </c>
-      <c r="L21" s="4" t="s">
+      <c r="L21" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="M21" s="4" t="s">
+      <c r="M21" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="N21" s="4" t="s">
+      <c r="N21" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="O21" s="4" t="s">
+      <c r="O21" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="P21" s="4" t="s">
+      <c r="P21" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="Q21" s="4" t="s">
+      <c r="Q21" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="R21" s="4" t="s">
+      <c r="R21" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="S21" s="4" t="s">
+      <c r="S21" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="T21" s="4" t="s">
+      <c r="T21" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="U21" s="4" t="s">
+      <c r="U21" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="V21" s="4" t="s">
+      <c r="V21" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="W21" s="4" t="s">
+      <c r="W21" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="X21" s="4" t="s">
+      <c r="X21" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="Y21" s="4" t="s">
+      <c r="Y21" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="Z21" s="4" t="s">
+      <c r="Z21" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="AA21" s="4" t="s">
+      <c r="AA21" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="AB21" s="4" t="s">
+      <c r="AB21" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="AC21" s="4" t="s">
+      <c r="AC21" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="AD21" s="4" t="s">
+      <c r="AD21" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AE21" s="4" t="s">
+      <c r="AE21" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="AF21" s="2">
+      <c r="AF21" s="13">
         <v>0</v>
       </c>
-      <c r="AG21" s="2">
+      <c r="AG21" s="13">
         <v>12</v>
       </c>
     </row>
@@ -3316,100 +3368,101 @@
       </c>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+      <c r="A25" s="13">
         <v>251519</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="14">
         <v>45756</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="14">
         <v>45818</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="13">
         <v>6</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="13">
         <v>13175</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="13">
         <v>600</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="H25" s="16"/>
+      <c r="I25" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="J25" s="2">
+      <c r="J25" s="13">
         <v>680</v>
       </c>
-      <c r="K25" s="2">
+      <c r="K25" s="13">
         <v>680</v>
       </c>
-      <c r="L25" s="4" t="s">
+      <c r="L25" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="M25" s="4" t="s">
+      <c r="M25" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="N25" s="4" t="s">
+      <c r="N25" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="O25" s="4" t="s">
+      <c r="O25" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="P25" s="4" t="s">
+      <c r="P25" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="Q25" s="4" t="s">
+      <c r="Q25" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="R25" s="4" t="s">
+      <c r="R25" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="S25" s="4" t="s">
+      <c r="S25" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="T25" s="4" t="s">
+      <c r="T25" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="U25" s="4" t="s">
+      <c r="U25" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="V25" s="4" t="s">
+      <c r="V25" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="W25" s="4" t="s">
+      <c r="W25" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="X25" s="4" t="s">
+      <c r="X25" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="Y25" s="4" t="s">
+      <c r="Y25" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="Z25" s="4" t="s">
+      <c r="Z25" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="AA25" s="4" t="s">
+      <c r="AA25" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="AB25" s="4" t="s">
+      <c r="AB25" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="AC25" s="4" t="s">
+      <c r="AC25" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="AD25" s="4" t="s">
+      <c r="AD25" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AE25" s="4" t="s">
+      <c r="AE25" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="AF25" s="2">
+      <c r="AF25" s="13">
         <v>0</v>
       </c>
-      <c r="AG25" s="2">
+      <c r="AG25" s="13">
         <v>14</v>
       </c>
     </row>
@@ -3512,100 +3565,101 @@
       </c>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+      <c r="A27" s="13">
         <v>251235</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="14">
         <v>45756</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="14">
         <v>45758</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="13">
         <v>0</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="13">
         <v>5739</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27" s="13">
         <v>400</v>
       </c>
-      <c r="I27" s="4" t="s">
+      <c r="H27" s="16"/>
+      <c r="I27" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="J27" s="2">
+      <c r="J27" s="13">
         <v>200</v>
       </c>
-      <c r="K27" s="2">
+      <c r="K27" s="13">
         <v>800</v>
       </c>
-      <c r="L27" s="4" t="s">
+      <c r="L27" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="M27" s="4" t="s">
+      <c r="M27" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="N27" s="4" t="s">
+      <c r="N27" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="O27" s="4" t="s">
+      <c r="O27" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="P27" s="4" t="s">
+      <c r="P27" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="Q27" s="4" t="s">
+      <c r="Q27" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="R27" s="4" t="s">
+      <c r="R27" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="S27" s="4" t="s">
+      <c r="S27" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="T27" s="4" t="s">
+      <c r="T27" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="U27" s="4" t="s">
+      <c r="U27" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="V27" s="4" t="s">
+      <c r="V27" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="W27" s="4" t="s">
+      <c r="W27" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="X27" s="4" t="s">
+      <c r="X27" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="Y27" s="4" t="s">
+      <c r="Y27" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="Z27" s="4" t="s">
+      <c r="Z27" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="AA27" s="4" t="s">
+      <c r="AA27" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="AB27" s="4" t="s">
+      <c r="AB27" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="AC27" s="4" t="s">
+      <c r="AC27" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="AD27" s="4" t="s">
+      <c r="AD27" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AE27" s="4" t="s">
+      <c r="AE27" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="AF27" s="2">
+      <c r="AF27" s="13">
         <v>0</v>
       </c>
-      <c r="AG27" s="2">
+      <c r="AG27" s="13">
         <v>36</v>
       </c>
     </row>
@@ -3711,296 +3765,299 @@
       </c>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+      <c r="A29" s="13">
         <v>250856</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="14">
         <v>45756</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="14">
         <v>45743</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="13">
         <v>1</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="13">
         <v>15152</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29" s="13">
         <v>800</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="H29" s="16"/>
+      <c r="I29" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="J29" s="2">
+      <c r="J29" s="13">
         <v>430</v>
       </c>
-      <c r="K29" s="2">
+      <c r="K29" s="13">
         <v>860</v>
       </c>
-      <c r="L29" s="4" t="s">
+      <c r="L29" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="M29" s="4" t="s">
+      <c r="M29" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="N29" s="4" t="s">
+      <c r="N29" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="O29" s="4" t="s">
+      <c r="O29" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="P29" s="4" t="s">
+      <c r="P29" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="Q29" s="4" t="s">
+      <c r="Q29" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="R29" s="4" t="s">
+      <c r="R29" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="S29" s="4" t="s">
+      <c r="S29" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="T29" s="4" t="s">
+      <c r="T29" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="U29" s="4" t="s">
+      <c r="U29" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="V29" s="4" t="s">
+      <c r="V29" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="W29" s="4" t="s">
+      <c r="W29" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="X29" s="4" t="s">
+      <c r="X29" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="Y29" s="4" t="s">
+      <c r="Y29" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="Z29" s="4" t="s">
+      <c r="Z29" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="AA29" s="4" t="s">
+      <c r="AA29" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="AB29" s="4" t="s">
+      <c r="AB29" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="AC29" s="4" t="s">
+      <c r="AC29" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="AD29" s="4" t="s">
+      <c r="AD29" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AE29" s="4" t="s">
+      <c r="AE29" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="AF29" s="2">
+      <c r="AF29" s="13">
         <v>0</v>
       </c>
-      <c r="AG29" s="2">
+      <c r="AG29" s="13">
         <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+      <c r="A30" s="13">
         <v>250855</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="14">
         <v>45756</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="14">
         <v>45743</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="13">
         <v>1</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="13">
         <v>28409</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30" s="13">
         <v>1500</v>
       </c>
-      <c r="I30" s="4" t="s">
+      <c r="H30" s="16"/>
+      <c r="I30" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="J30" s="2">
+      <c r="J30" s="13">
         <v>430</v>
       </c>
-      <c r="K30" s="2">
+      <c r="K30" s="13">
         <v>860</v>
       </c>
-      <c r="L30" s="4" t="s">
+      <c r="L30" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="M30" s="4" t="s">
+      <c r="M30" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="N30" s="4" t="s">
+      <c r="N30" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="O30" s="4" t="s">
+      <c r="O30" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="P30" s="4" t="s">
+      <c r="P30" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="Q30" s="4" t="s">
+      <c r="Q30" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="R30" s="4" t="s">
+      <c r="R30" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="S30" s="4" t="s">
+      <c r="S30" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="T30" s="4" t="s">
+      <c r="T30" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="U30" s="4" t="s">
+      <c r="U30" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="V30" s="4" t="s">
+      <c r="V30" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="W30" s="4" t="s">
+      <c r="W30" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="X30" s="4" t="s">
+      <c r="X30" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="Y30" s="4" t="s">
+      <c r="Y30" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="Z30" s="4" t="s">
+      <c r="Z30" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="AA30" s="4" t="s">
+      <c r="AA30" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="AB30" s="4" t="s">
+      <c r="AB30" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="AC30" s="4" t="s">
+      <c r="AC30" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="AD30" s="4" t="s">
+      <c r="AD30" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AE30" s="4" t="s">
+      <c r="AE30" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="AF30" s="2">
+      <c r="AF30" s="13">
         <v>0</v>
       </c>
-      <c r="AG30" s="2">
+      <c r="AG30" s="13">
         <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+      <c r="A31" s="13">
         <v>251134</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="14">
         <v>45756</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="14">
         <v>45761</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="13">
         <v>1</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="13">
         <v>4397</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31" s="13">
         <v>325.125</v>
       </c>
-      <c r="I31" s="4" t="s">
+      <c r="H31" s="16"/>
+      <c r="I31" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="J31" s="2">
+      <c r="J31" s="13">
         <v>170</v>
       </c>
-      <c r="K31" s="2">
+      <c r="K31" s="13">
         <v>850</v>
       </c>
-      <c r="L31" s="4" t="s">
+      <c r="L31" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="M31" s="4" t="s">
+      <c r="M31" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="N31" s="4" t="s">
+      <c r="N31" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="O31" s="4" t="s">
+      <c r="O31" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="P31" s="4" t="s">
+      <c r="P31" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="Q31" s="4" t="s">
+      <c r="Q31" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="R31" s="4" t="s">
+      <c r="R31" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="S31" s="4" t="s">
+      <c r="S31" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="T31" s="4" t="s">
+      <c r="T31" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="U31" s="4" t="s">
+      <c r="U31" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="V31" s="4" t="s">
+      <c r="V31" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="W31" s="4" t="s">
+      <c r="W31" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="X31" s="4" t="s">
+      <c r="X31" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="Y31" s="4" t="s">
+      <c r="Y31" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="Z31" s="4" t="s">
+      <c r="Z31" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="AA31" s="4" t="s">
+      <c r="AA31" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="AB31" s="4" t="s">
+      <c r="AB31" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="AC31" s="4" t="s">
+      <c r="AC31" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="AD31" s="4" t="s">
+      <c r="AD31" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AE31" s="4" t="s">
+      <c r="AE31" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="AF31" s="2">
+      <c r="AF31" s="13">
         <v>0</v>
       </c>
-      <c r="AG31" s="2">
+      <c r="AG31" s="13">
         <v>35</v>
       </c>
     </row>
@@ -4611,100 +4668,101 @@
       </c>
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
+      <c r="A38" s="13">
         <v>251015</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="14">
         <v>45756</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="14">
         <v>45751</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="13">
         <v>7</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38" s="13">
         <v>12712</v>
       </c>
-      <c r="G38" s="2">
+      <c r="G38" s="13">
         <v>600</v>
       </c>
-      <c r="I38" s="4" t="s">
+      <c r="H38" s="16"/>
+      <c r="I38" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="J38" s="2">
+      <c r="J38" s="13">
         <v>197</v>
       </c>
-      <c r="K38" s="2">
+      <c r="K38" s="13">
         <v>590</v>
       </c>
-      <c r="L38" s="4" t="s">
+      <c r="L38" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="M38" s="4" t="s">
+      <c r="M38" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="N38" s="4" t="s">
+      <c r="N38" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="O38" s="4" t="s">
+      <c r="O38" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="P38" s="4" t="s">
+      <c r="P38" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="Q38" s="4" t="s">
+      <c r="Q38" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="R38" s="4" t="s">
+      <c r="R38" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="S38" s="4" t="s">
+      <c r="S38" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="T38" s="4" t="s">
+      <c r="T38" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="U38" s="4" t="s">
+      <c r="U38" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="V38" s="4" t="s">
+      <c r="V38" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="W38" s="4" t="s">
+      <c r="W38" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="X38" s="4" t="s">
+      <c r="X38" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="Y38" s="4" t="s">
+      <c r="Y38" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="Z38" s="4" t="s">
+      <c r="Z38" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="AA38" s="4" t="s">
+      <c r="AA38" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="AB38" s="4" t="s">
+      <c r="AB38" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="AC38" s="4" t="s">
+      <c r="AC38" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="AD38" s="4" t="s">
+      <c r="AD38" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AE38" s="4" t="s">
+      <c r="AE38" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="AF38" s="2">
+      <c r="AF38" s="13">
         <v>0</v>
       </c>
-      <c r="AG38" s="2">
+      <c r="AG38" s="13">
         <v>56.903553299492387</v>
       </c>
     </row>
@@ -4712,100 +4770,100 @@
       <c r="A39" s="9">
         <v>251097</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="10">
         <v>45756</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="10">
         <v>45762</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="9">
         <v>6</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39" s="9">
         <v>17361</v>
       </c>
-      <c r="G39" s="2">
+      <c r="G39" s="9">
         <v>1000</v>
       </c>
-      <c r="H39" s="4" t="s">
+      <c r="H39" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="I39" s="4" t="s">
+      <c r="I39" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="J39" s="2">
+      <c r="J39" s="9">
         <v>355</v>
       </c>
-      <c r="K39" s="2">
+      <c r="K39" s="9">
         <v>710</v>
       </c>
-      <c r="L39" s="4" t="s">
+      <c r="L39" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="M39" s="4" t="s">
+      <c r="M39" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="N39" s="4" t="s">
+      <c r="N39" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="O39" s="4" t="s">
+      <c r="O39" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="P39" s="4" t="s">
+      <c r="P39" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="Q39" s="4" t="s">
+      <c r="Q39" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="R39" s="4" t="s">
+      <c r="R39" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="S39" s="4" t="s">
+      <c r="S39" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="T39" s="4" t="s">
+      <c r="T39" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="U39" s="4" t="s">
+      <c r="U39" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="V39" s="4" t="s">
+      <c r="V39" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="W39" s="4" t="s">
+      <c r="W39" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="X39" s="4" t="s">
+      <c r="X39" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="Y39" s="4" t="s">
+      <c r="Y39" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="Z39" s="4" t="s">
+      <c r="Z39" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="AA39" s="4" t="s">
+      <c r="AA39" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="AB39" s="4" t="s">
+      <c r="AB39" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="AC39" s="4" t="s">
+      <c r="AC39" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="AD39" s="4" t="s">
+      <c r="AD39" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="AE39" s="4" t="s">
+      <c r="AE39" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="AF39" s="2">
+      <c r="AF39" s="9">
         <v>0</v>
       </c>
-      <c r="AG39" s="2">
+      <c r="AG39" s="9">
         <v>54</v>
       </c>
     </row>
@@ -4911,198 +4969,200 @@
       </c>
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
+      <c r="A41" s="13">
         <v>250479</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="14">
         <v>45756</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="14">
         <v>45751</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="13">
         <v>3</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41" s="13">
         <v>16467</v>
       </c>
-      <c r="G41" s="2">
+      <c r="G41" s="13">
         <v>1043.328</v>
       </c>
-      <c r="I41" s="4" t="s">
+      <c r="H41" s="16"/>
+      <c r="I41" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="J41" s="2">
+      <c r="J41" s="13">
         <v>228</v>
       </c>
-      <c r="K41" s="2">
+      <c r="K41" s="13">
         <v>912</v>
       </c>
-      <c r="L41" s="4" t="s">
+      <c r="L41" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="M41" s="4" t="s">
+      <c r="M41" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="N41" s="4" t="s">
+      <c r="N41" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="O41" s="4" t="s">
+      <c r="O41" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="P41" s="4" t="s">
+      <c r="P41" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="Q41" s="4" t="s">
+      <c r="Q41" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="R41" s="4" t="s">
+      <c r="R41" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="S41" s="4" t="s">
+      <c r="S41" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="T41" s="4" t="s">
+      <c r="T41" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="U41" s="4" t="s">
+      <c r="U41" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="V41" s="4" t="s">
+      <c r="V41" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="W41" s="4" t="s">
+      <c r="W41" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="X41" s="4" t="s">
+      <c r="X41" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="Y41" s="4" t="s">
+      <c r="Y41" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="Z41" s="4" t="s">
+      <c r="Z41" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="AA41" s="4" t="s">
+      <c r="AA41" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="AB41" s="4" t="s">
+      <c r="AB41" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="AC41" s="4" t="s">
+      <c r="AC41" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="AD41" s="4" t="s">
+      <c r="AD41" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AE41" s="4" t="s">
+      <c r="AE41" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="AF41" s="2">
+      <c r="AF41" s="13">
         <v>0</v>
       </c>
-      <c r="AG41" s="2">
+      <c r="AG41" s="13">
         <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
+      <c r="A42" s="13">
         <v>250478</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="14">
         <v>45756</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="14">
         <v>45751</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="13">
         <v>3</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42" s="13">
         <v>4184</v>
       </c>
-      <c r="G42" s="2">
+      <c r="G42" s="13">
         <v>209.859375</v>
       </c>
-      <c r="I42" s="4" t="s">
+      <c r="H42" s="16"/>
+      <c r="I42" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="J42" s="2">
+      <c r="J42" s="13">
         <v>185</v>
       </c>
-      <c r="K42" s="2">
+      <c r="K42" s="13">
         <v>740</v>
       </c>
-      <c r="L42" s="4" t="s">
+      <c r="L42" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="M42" s="4" t="s">
+      <c r="M42" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="N42" s="4" t="s">
+      <c r="N42" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="O42" s="4" t="s">
+      <c r="O42" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="P42" s="4" t="s">
+      <c r="P42" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="Q42" s="4" t="s">
+      <c r="Q42" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="R42" s="4" t="s">
+      <c r="R42" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="S42" s="4" t="s">
+      <c r="S42" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="T42" s="4" t="s">
+      <c r="T42" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="U42" s="4" t="s">
+      <c r="U42" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="V42" s="4" t="s">
+      <c r="V42" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="W42" s="4" t="s">
+      <c r="W42" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="X42" s="4" t="s">
+      <c r="X42" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="Y42" s="4" t="s">
+      <c r="Y42" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="Z42" s="4" t="s">
+      <c r="Z42" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="AA42" s="4" t="s">
+      <c r="AA42" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="AB42" s="4" t="s">
+      <c r="AB42" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="AC42" s="4" t="s">
+      <c r="AC42" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="AD42" s="4" t="s">
+      <c r="AD42" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AE42" s="4" t="s">
+      <c r="AE42" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="AF42" s="2">
+      <c r="AF42" s="13">
         <v>0</v>
       </c>
-      <c r="AG42" s="2">
+      <c r="AG42" s="13">
         <v>16</v>
       </c>
     </row>
@@ -5110,100 +5170,100 @@
       <c r="A43" s="9">
         <v>251025</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43" s="10">
         <v>45756</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="10">
         <v>45740</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="9">
         <v>1</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43" s="9">
         <v>4167</v>
       </c>
-      <c r="G43" s="2">
+      <c r="G43" s="9">
         <v>200</v>
       </c>
-      <c r="H43" s="4" t="s">
+      <c r="H43" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="I43" s="4" t="s">
+      <c r="I43" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="J43" s="2">
+      <c r="J43" s="9">
         <v>290</v>
       </c>
-      <c r="K43" s="2">
+      <c r="K43" s="9">
         <v>580</v>
       </c>
-      <c r="L43" s="4" t="s">
+      <c r="L43" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="M43" s="4" t="s">
+      <c r="M43" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="N43" s="4" t="s">
+      <c r="N43" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="O43" s="4" t="s">
+      <c r="O43" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="P43" s="4" t="s">
+      <c r="P43" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="Q43" s="4" t="s">
+      <c r="Q43" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="R43" s="4" t="s">
+      <c r="R43" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="S43" s="4" t="s">
+      <c r="S43" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="T43" s="4" t="s">
+      <c r="T43" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="U43" s="4" t="s">
+      <c r="U43" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="V43" s="4" t="s">
+      <c r="V43" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="W43" s="4" t="s">
+      <c r="W43" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="X43" s="4" t="s">
+      <c r="X43" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="Y43" s="4" t="s">
+      <c r="Y43" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="Z43" s="4" t="s">
+      <c r="Z43" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="AA43" s="4" t="s">
+      <c r="AA43" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="AB43" s="4" t="s">
+      <c r="AB43" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="AC43" s="4" t="s">
+      <c r="AC43" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="AD43" s="4" t="s">
+      <c r="AD43" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="AE43" s="4" t="s">
+      <c r="AE43" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="AF43" s="2">
+      <c r="AF43" s="9">
         <v>0</v>
       </c>
-      <c r="AG43" s="2">
+      <c r="AG43" s="9">
         <v>14</v>
       </c>
     </row>
@@ -5211,394 +5271,397 @@
       <c r="A44" s="9">
         <v>251033</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" s="10">
         <v>45756</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="10">
         <v>45740</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="9">
         <v>1</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F44" s="9">
         <v>6146</v>
       </c>
-      <c r="G44" s="2">
+      <c r="G44" s="9">
         <v>250</v>
       </c>
-      <c r="H44" s="4" t="s">
+      <c r="H44" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="I44" s="4" t="s">
+      <c r="I44" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="J44" s="2">
+      <c r="J44" s="9">
         <v>590</v>
       </c>
-      <c r="K44" s="2">
+      <c r="K44" s="9">
         <v>590</v>
       </c>
-      <c r="L44" s="4" t="s">
+      <c r="L44" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="M44" s="4" t="s">
+      <c r="M44" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="N44" s="4" t="s">
+      <c r="N44" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="O44" s="4" t="s">
+      <c r="O44" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="P44" s="4" t="s">
+      <c r="P44" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="Q44" s="4" t="s">
+      <c r="Q44" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="R44" s="4" t="s">
+      <c r="R44" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="S44" s="4" t="s">
+      <c r="S44" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="T44" s="4" t="s">
+      <c r="T44" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="U44" s="4" t="s">
+      <c r="U44" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="V44" s="4" t="s">
+      <c r="V44" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="W44" s="4" t="s">
+      <c r="W44" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="X44" s="4" t="s">
+      <c r="X44" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="Y44" s="4" t="s">
+      <c r="Y44" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="Z44" s="4" t="s">
+      <c r="Z44" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="AA44" s="4" t="s">
+      <c r="AA44" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="AB44" s="4" t="s">
+      <c r="AB44" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="AC44" s="4" t="s">
+      <c r="AC44" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="AD44" s="4" t="s">
+      <c r="AD44" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="AE44" s="4" t="s">
+      <c r="AE44" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="AF44" s="2">
+      <c r="AF44" s="9">
         <v>0</v>
       </c>
-      <c r="AG44" s="2">
+      <c r="AG44" s="9">
         <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
+      <c r="A45" s="13">
         <v>250635</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45" s="14">
         <v>45756</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="14">
         <v>45771</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="13">
         <v>0</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45" s="13">
         <v>9369</v>
       </c>
-      <c r="G45" s="2">
+      <c r="G45" s="13">
         <v>659.21687499999996</v>
       </c>
-      <c r="I45" s="4" t="s">
+      <c r="H45" s="16"/>
+      <c r="I45" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="J45" s="2">
+      <c r="J45" s="13">
         <v>215</v>
       </c>
-      <c r="K45" s="2">
+      <c r="K45" s="13">
         <v>1075</v>
       </c>
-      <c r="L45" s="4" t="s">
+      <c r="L45" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="M45" s="4" t="s">
+      <c r="M45" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="N45" s="4" t="s">
+      <c r="N45" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="O45" s="4" t="s">
+      <c r="O45" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="P45" s="4" t="s">
+      <c r="P45" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="Q45" s="4" t="s">
+      <c r="Q45" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="R45" s="4" t="s">
+      <c r="R45" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="S45" s="4" t="s">
+      <c r="S45" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="T45" s="4" t="s">
+      <c r="T45" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="U45" s="4" t="s">
+      <c r="U45" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="V45" s="4" t="s">
+      <c r="V45" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="W45" s="4" t="s">
+      <c r="W45" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="X45" s="4" t="s">
+      <c r="X45" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="Y45" s="4" t="s">
+      <c r="Y45" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="Z45" s="4" t="s">
+      <c r="Z45" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="AA45" s="4" t="s">
+      <c r="AA45" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="AB45" s="4" t="s">
+      <c r="AB45" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="AC45" s="4" t="s">
+      <c r="AC45" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="AD45" s="4" t="s">
+      <c r="AD45" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AE45" s="4" t="s">
+      <c r="AE45" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="AF45" s="2">
+      <c r="AF45" s="13">
         <v>0</v>
       </c>
-      <c r="AG45" s="2">
+      <c r="AG45" s="13">
         <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
+      <c r="A46" s="13">
         <v>250637</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" s="14">
         <v>45756</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="14">
         <v>45792</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="13">
         <v>0</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F46" s="13">
         <v>37477</v>
       </c>
-      <c r="G46" s="2">
+      <c r="G46" s="13">
         <v>2636.8674999999998</v>
       </c>
-      <c r="I46" s="4" t="s">
+      <c r="H46" s="16"/>
+      <c r="I46" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="J46" s="2">
+      <c r="J46" s="13">
         <v>215</v>
       </c>
-      <c r="K46" s="2">
+      <c r="K46" s="13">
         <v>1075</v>
       </c>
-      <c r="L46" s="4" t="s">
+      <c r="L46" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="M46" s="4" t="s">
+      <c r="M46" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="N46" s="4" t="s">
+      <c r="N46" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="O46" s="4" t="s">
+      <c r="O46" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="P46" s="4" t="s">
+      <c r="P46" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="Q46" s="4" t="s">
+      <c r="Q46" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="R46" s="4" t="s">
+      <c r="R46" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="S46" s="4" t="s">
+      <c r="S46" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="T46" s="4" t="s">
+      <c r="T46" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="U46" s="4" t="s">
+      <c r="U46" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="V46" s="4" t="s">
+      <c r="V46" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="W46" s="4" t="s">
+      <c r="W46" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="X46" s="4" t="s">
+      <c r="X46" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="Y46" s="4" t="s">
+      <c r="Y46" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="Z46" s="4" t="s">
+      <c r="Z46" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="AA46" s="4" t="s">
+      <c r="AA46" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="AB46" s="4" t="s">
+      <c r="AB46" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="AC46" s="4" t="s">
+      <c r="AC46" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="AD46" s="4" t="s">
+      <c r="AD46" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AE46" s="4" t="s">
+      <c r="AE46" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="AF46" s="2">
+      <c r="AF46" s="13">
         <v>0</v>
       </c>
-      <c r="AG46" s="2">
+      <c r="AG46" s="13">
         <v>160</v>
       </c>
     </row>
     <row r="47" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
+      <c r="A47" s="13">
         <v>251285</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47" s="14">
         <v>45756</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="14">
         <v>45769</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47" s="13">
         <v>3</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F47" s="13">
         <v>57971</v>
       </c>
-      <c r="G47" s="2">
+      <c r="G47" s="13">
         <v>3000</v>
       </c>
-      <c r="I47" s="4" t="s">
+      <c r="H47" s="16"/>
+      <c r="I47" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="J47" s="2">
+      <c r="J47" s="13">
         <v>223</v>
       </c>
-      <c r="K47" s="2">
+      <c r="K47" s="13">
         <v>669</v>
       </c>
-      <c r="L47" s="4" t="s">
+      <c r="L47" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="M47" s="4" t="s">
+      <c r="M47" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="N47" s="4" t="s">
+      <c r="N47" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="O47" s="4" t="s">
+      <c r="O47" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="P47" s="4" t="s">
+      <c r="P47" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="Q47" s="4" t="s">
+      <c r="Q47" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="R47" s="4" t="s">
+      <c r="R47" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="S47" s="4" t="s">
+      <c r="S47" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="T47" s="4" t="s">
+      <c r="T47" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="U47" s="4" t="s">
+      <c r="U47" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="V47" s="4" t="s">
+      <c r="V47" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="W47" s="4" t="s">
+      <c r="W47" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="X47" s="4" t="s">
+      <c r="X47" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="Y47" s="4" t="s">
+      <c r="Y47" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="Z47" s="4" t="s">
+      <c r="Z47" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="AA47" s="4" t="s">
+      <c r="AA47" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="AB47" s="4" t="s">
+      <c r="AB47" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="AC47" s="4" t="s">
+      <c r="AC47" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="AD47" s="4" t="s">
+      <c r="AD47" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AE47" s="4" t="s">
+      <c r="AE47" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="AF47" s="2">
+      <c r="AF47" s="13">
         <v>0</v>
       </c>
-      <c r="AG47" s="2">
+      <c r="AG47" s="13">
         <v>255</v>
       </c>
     </row>
@@ -5903,95 +5966,95 @@
       </c>
       <c r="AG50" s="8"/>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
+    <row r="51" spans="1:33" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="17">
         <v>251614</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51" s="18">
         <v>45756</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51" s="18">
         <v>45754</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51" s="17">
         <v>6</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F51" s="17">
         <v>656</v>
       </c>
-      <c r="G51" s="2">
+      <c r="G51" s="17">
         <v>13.86693</v>
       </c>
-      <c r="H51" s="4" t="s">
+      <c r="H51" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="I51" s="4" t="s">
+      <c r="I51" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="K51" s="2">
+      <c r="K51" s="17">
         <v>770</v>
       </c>
-      <c r="L51" s="4" t="s">
+      <c r="L51" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="N51" s="4" t="s">
+      <c r="N51" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="O51" s="4" t="s">
+      <c r="O51" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="P51" s="4" t="s">
+      <c r="P51" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="Q51" s="4" t="s">
+      <c r="Q51" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="R51" s="4" t="s">
+      <c r="R51" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="S51" s="4" t="s">
+      <c r="S51" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="T51" s="4" t="s">
+      <c r="T51" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="U51" s="4" t="s">
+      <c r="U51" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="V51" s="4" t="s">
+      <c r="V51" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="W51" s="4" t="s">
+      <c r="W51" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="X51" s="4" t="s">
+      <c r="X51" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="Y51" s="4" t="s">
+      <c r="Y51" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="Z51" s="4" t="s">
+      <c r="Z51" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="AA51" s="4" t="s">
+      <c r="AA51" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="AB51" s="4" t="s">
+      <c r="AB51" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="AC51" s="4" t="s">
+      <c r="AC51" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="AD51" s="4" t="s">
+      <c r="AD51" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="AE51" s="4" t="s">
+      <c r="AE51" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="AF51" s="2">
+      <c r="AF51" s="17">
         <v>0</v>
       </c>
     </row>
